--- a/Statistical analyses/Tukey posthoc/alkane/alkane, timePoint x Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/alkane/alkane, timePoint x Vegetation.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial-enzyme-activity-in-leaf-litter\Statistical analyses\Tukey posthoc\alkane\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E16E9-A229-400B-A652-44475FDA6428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="alkane" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,35 +37,35 @@
     <t>reject</t>
   </si>
   <si>
+    <t>0 x CSS</t>
+  </si>
+  <si>
     <t>0 x Grassland</t>
   </si>
   <si>
-    <t>0 x Shrub</t>
+    <t>3 x CSS</t>
   </si>
   <si>
     <t>3 x Grassland</t>
   </si>
   <si>
-    <t>3 x Shrub</t>
+    <t>5 x CSS</t>
   </si>
   <si>
     <t>5 x Grassland</t>
   </si>
   <si>
-    <t>5 x Shrub</t>
+    <t>6 x CSS</t>
   </si>
   <si>
     <t>6 x Grassland</t>
-  </si>
-  <si>
-    <t>6 x Shrub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +82,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,26 +117,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,27 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,24 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,19 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,30 +445,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.1718999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.7147</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.6291</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>-1.1719</v>
+      </c>
+      <c r="D2">
+        <v>0.001</v>
+      </c>
+      <c r="E2">
+        <v>-1.6291</v>
+      </c>
+      <c r="F2">
+        <v>-0.7147</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -538,45 +476,45 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.5100000000000001E-2</v>
+        <v>-0.3293</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <v>0.3294</v>
       </c>
       <c r="E3">
-        <v>-0.41210000000000002</v>
+        <v>-0.7865</v>
       </c>
       <c r="F3">
-        <v>0.50229999999999997</v>
+        <v>0.1279</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.84260000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.38540000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.2998000000000001</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>-1.1268</v>
+      </c>
+      <c r="D4">
+        <v>0.001</v>
+      </c>
+      <c r="E4">
+        <v>-1.584</v>
+      </c>
+      <c r="F4">
+        <v>-0.6696</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -584,45 +522,45 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.1787</v>
+        <v>-0.6694</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="E5">
-        <v>-0.27839999999999998</v>
+        <v>-1.1266</v>
       </c>
       <c r="F5">
-        <v>0.63590000000000002</v>
+        <v>-0.2122</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.9597</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>-0.9932</v>
+      </c>
+      <c r="D6">
+        <v>0.001</v>
+      </c>
+      <c r="E6">
+        <v>-1.4504</v>
+      </c>
+      <c r="F6">
+        <v>-0.536</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -630,22 +568,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>4.7999999999999996E-3</v>
+        <v>-0.7369</v>
       </c>
       <c r="D7">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="E7">
-        <v>-0.45240000000000002</v>
+        <v>-1.1941</v>
       </c>
       <c r="F7">
-        <v>0.46200000000000002</v>
+        <v>-0.2797</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -653,45 +591,45 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.43509999999999999</v>
+        <v>-1.1672</v>
       </c>
       <c r="D8">
-        <v>7.3400000000000007E-2</v>
+        <v>0.001</v>
       </c>
       <c r="E8">
-        <v>-2.2100000000000002E-2</v>
+        <v>-1.6243</v>
       </c>
       <c r="F8">
-        <v>0.89219999999999999</v>
+        <v>-0.71</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
-        <v>-1.1268</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-1.5840000000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-0.66959999999999997</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.8426</v>
+      </c>
+      <c r="D9">
+        <v>0.001</v>
+      </c>
+      <c r="E9">
+        <v>0.3854</v>
+      </c>
+      <c r="F9">
+        <v>1.2998</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -699,137 +637,137 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.32929999999999998</v>
+        <v>0.0451</v>
       </c>
       <c r="D10">
-        <v>0.32940000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>-0.78649999999999998</v>
+        <v>-0.4121</v>
       </c>
       <c r="F10">
-        <v>0.12790000000000001</v>
+        <v>0.5023</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
-        <v>-0.99319999999999997</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-1.4503999999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-0.53600000000000003</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="C11">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.0216</v>
+      </c>
+      <c r="E11">
+        <v>0.0454</v>
+      </c>
+      <c r="F11">
+        <v>0.9597</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
-        <v>-0.6694</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-1.1266</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-0.2122</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C12">
+        <v>0.1787</v>
+      </c>
+      <c r="D12">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>-0.2784</v>
+      </c>
+      <c r="F12">
+        <v>0.6359</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
-        <v>-1.1672</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-1.6243000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-0.71</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="C13">
+        <v>0.4351</v>
+      </c>
+      <c r="D13">
+        <v>0.07340000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-0.0221</v>
+      </c>
+      <c r="F13">
+        <v>0.8922</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
-        <v>-0.7369</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-1.1940999999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-0.2797</v>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="C14">
+        <v>0.0048</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>-0.4524</v>
+      </c>
+      <c r="F14">
+        <v>0.462</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.79749999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.34029999999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.2546999999999999</v>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>-0.7975</v>
+      </c>
+      <c r="D15">
+        <v>0.001</v>
+      </c>
+      <c r="E15">
+        <v>-1.2547</v>
+      </c>
+      <c r="F15">
+        <v>-0.3403</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -837,45 +775,45 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>0.1336</v>
+        <v>-0.3401</v>
       </c>
       <c r="D16">
-        <v>0.9</v>
+        <v>0.2904</v>
       </c>
       <c r="E16">
-        <v>-0.3236</v>
+        <v>-0.7973</v>
       </c>
       <c r="F16">
-        <v>0.59079999999999999</v>
+        <v>0.1171</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.45739999999999997</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.91459999999999997</v>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>-0.6639</v>
+      </c>
+      <c r="D17">
+        <v>0.001</v>
+      </c>
+      <c r="E17">
+        <v>-1.1211</v>
+      </c>
+      <c r="F17">
+        <v>-0.2067</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -883,22 +821,22 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>-4.0399999999999998E-2</v>
+        <v>-0.4076</v>
       </c>
       <c r="D18">
-        <v>0.9</v>
+        <v>0.1142</v>
       </c>
       <c r="E18">
-        <v>-0.4975</v>
+        <v>-0.8648</v>
       </c>
       <c r="F18">
-        <v>0.4168</v>
+        <v>0.0496</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -906,45 +844,45 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>0.38990000000000002</v>
+        <v>-0.8379</v>
       </c>
       <c r="D19">
-        <v>0.1487</v>
+        <v>0.001</v>
       </c>
       <c r="E19">
-        <v>-6.7299999999999999E-2</v>
+        <v>-1.295</v>
       </c>
       <c r="F19">
-        <v>0.84709999999999996</v>
+        <v>-0.3807</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2">
-        <v>-0.66390000000000005</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-1.1211</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-0.20669999999999999</v>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.4574</v>
+      </c>
+      <c r="D20">
+        <v>0.0498</v>
+      </c>
+      <c r="E20">
+        <v>0.0002</v>
+      </c>
+      <c r="F20">
+        <v>0.9146</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -952,45 +890,45 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>-0.34010000000000001</v>
+        <v>0.1336</v>
       </c>
       <c r="D21">
-        <v>0.29039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E21">
-        <v>-0.79730000000000001</v>
+        <v>-0.3236</v>
       </c>
       <c r="F21">
-        <v>0.1171</v>
+        <v>0.5908</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2">
-        <v>-0.83789999999999998</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-1.2949999999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-0.38069999999999998</v>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0.3899</v>
+      </c>
+      <c r="D22">
+        <v>0.1487</v>
+      </c>
+      <c r="E22">
+        <v>-0.0673</v>
+      </c>
+      <c r="F22">
+        <v>0.8471</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -998,22 +936,22 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>-0.40760000000000002</v>
+        <v>-0.0404</v>
       </c>
       <c r="D23">
-        <v>0.1142</v>
+        <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-0.86480000000000001</v>
+        <v>-0.4975</v>
       </c>
       <c r="F23">
-        <v>4.9599999999999998E-2</v>
+        <v>0.4168</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1021,22 +959,22 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>0.32379999999999998</v>
+        <v>-0.3238</v>
       </c>
       <c r="D24">
-        <v>0.35110000000000002</v>
+        <v>0.3511</v>
       </c>
       <c r="E24">
-        <v>-0.13339999999999999</v>
+        <v>-0.7809999999999999</v>
       </c>
       <c r="F24">
-        <v>0.78099999999999992</v>
+        <v>0.1334</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1044,22 +982,22 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>-0.17399999999999999</v>
+        <v>-0.0675</v>
       </c>
       <c r="D25">
         <v>0.9</v>
       </c>
       <c r="E25">
-        <v>-0.63119999999999998</v>
+        <v>-0.5247000000000001</v>
       </c>
       <c r="F25">
-        <v>0.28320000000000001</v>
+        <v>0.3897</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1067,45 +1005,45 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>0.25629999999999997</v>
+        <v>-0.4978</v>
       </c>
       <c r="D26">
-        <v>0.62719999999999998</v>
+        <v>0.0237</v>
       </c>
       <c r="E26">
+        <v>-0.955</v>
+      </c>
+      <c r="F26">
+        <v>-0.0406</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>0.2563</v>
+      </c>
+      <c r="D27">
+        <v>0.6272</v>
+      </c>
+      <c r="E27">
         <v>-0.2009</v>
       </c>
-      <c r="F26">
-        <v>0.71350000000000002</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-0.49780000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-0.95499999999999996</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-4.0599999999999997E-2</v>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0.7135</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1113,22 +1051,22 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>-6.7500000000000004E-2</v>
+        <v>-0.174</v>
       </c>
       <c r="D28">
         <v>0.9</v>
       </c>
       <c r="E28">
-        <v>-0.52470000000000006</v>
+        <v>-0.6312</v>
       </c>
       <c r="F28">
-        <v>0.38969999999999999</v>
+        <v>0.2832</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1136,16 +1074,16 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>0.43030000000000002</v>
+        <v>-0.4303</v>
       </c>
       <c r="D29">
-        <v>7.9500000000000001E-2</v>
+        <v>0.0795</v>
       </c>
       <c r="E29">
-        <v>-2.69E-2</v>
+        <v>-0.8875</v>
       </c>
       <c r="F29">
-        <v>0.88749999999999996</v>
+        <v>0.0269</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
